--- a/benchmark results.xlsx
+++ b/benchmark results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>akka:</t>
   </si>
@@ -33,22 +33,34 @@
     <t>BENCHMARK:</t>
   </si>
   <si>
-    <t>test:</t>
-  </si>
-  <si>
     <t>double loop through an array of 1,000 integers</t>
   </si>
   <si>
     <t>double loop through an array of 10,000 integers</t>
   </si>
   <si>
-    <t>ms</t>
-  </si>
-  <si>
     <t>operation: product of elements of arrays</t>
   </si>
   <si>
-    <t>operation: do some random regex ops for each of the 10,000 steps</t>
+    <t>milliseconds</t>
+  </si>
+  <si>
+    <t>TEST 1</t>
+  </si>
+  <si>
+    <t>TEST 2</t>
+  </si>
+  <si>
+    <t>10 actors</t>
+  </si>
+  <si>
+    <t>100 actors</t>
+  </si>
+  <si>
+    <t>1000 actors</t>
+  </si>
+  <si>
+    <t>operation: do some complex regex ops on a randon String for each of the 10,000 steps</t>
   </si>
 </sst>
 </file>
@@ -391,42 +403,45 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G1" sqref="G1:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="7" max="7" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
@@ -447,7 +462,7 @@
         <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H7" s="1">
         <v>348</v>
@@ -461,7 +476,7 @@
         <v>460</v>
       </c>
       <c r="G8" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H8" s="1">
         <v>2231</v>
@@ -475,7 +490,7 @@
         <v>3500</v>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H9" s="1">
         <v>20000</v>

--- a/benchmark results.xlsx
+++ b/benchmark results.xlsx
@@ -403,7 +403,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>460</v>
+        <v>1200</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
         <v>1</v>
@@ -523,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="1">
-        <v>60</v>
+        <v>5600</v>
       </c>
       <c r="G14" t="s">
         <v>2</v>
@@ -537,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="1">
-        <v>560</v>
+        <v>56000</v>
       </c>
       <c r="G15" t="s">
         <v>3</v>
